--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_12.08.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2894 +505,3441 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731410231.113933</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731410232.172262</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410231.113933.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410232.172262.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.63</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.72</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.090000000000032</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731410233.344174</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731410234.5682204</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410233.344174.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410234.5682204.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.82</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731410235.0324066</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731410238.4840996</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410235.0324066.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410238.4840996.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.17</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.46</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2899999999999636</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731410239.1325235</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731410239.8501842</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410239.1325235.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731410239.8501842.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>279.24</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.94</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731410240.90884</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731410240.90884.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731410240.90884.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>280.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731410242.8832297</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731410243.6847525</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410242.8832297.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410243.6847525.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.63</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.72</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.090000000000032</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731410244.6407409</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731410245.6896422</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410244.6407409.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410245.6896422.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.58</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.82</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731410246.080699</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731410248.8965623</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410246.080699.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410248.8965623.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.17</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.46</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2899999999999636</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731410249.3643718</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731410250.0660517</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410249.3643718.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410250.0660517.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>279.24</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.94</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731410251.0032976</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731410252.7188504</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410251.0032976.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410252.7188504.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.48</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.019999999999982</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731410252.7328131</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731410253.7304678</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410252.7328131.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410253.7304678.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.48</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>279.49</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.009999999999991</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731410255.50267</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731410256.2355654</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410255.50267.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410256.2355654.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.38</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.71</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731410256.7877257</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731410258.6240528</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410256.7877257.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410258.6240528.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>279.17</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.95</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731410259.1620402</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731410261.7140515</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410259.1620402.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410261.7140515.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>279.34</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>279.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.4600000000000364</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731410262.810511</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731410262.810511.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731410262.810511.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>280.6</v>
       </c>
-      <c r="J17" t="n">
-        <v>280.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>281.03</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.42999999999995</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731410264.8605852</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731410265.9181666</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410264.8605852.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410265.9181666.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>128.05</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3500000000000085</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731410267.357442</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731410268.9714622</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410267.357442.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410268.9714622.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.45</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.68</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.230000000000004</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731410271.015602</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731410271.3836389</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410271.015602.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410271.3836389.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.75</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.55</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731410271.9309838</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731410272.8154716</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410271.9309838.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410272.8154716.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.89</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>127.84</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731410275.3871074</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731410275.3871074.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731410275.3871074.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>128.37</v>
       </c>
-      <c r="J22" t="n">
-        <v>128.37</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>128.91</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.539999999999992</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731410279.5431116</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731410281.6101463</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410279.5431116.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410281.6101463.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6352.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6345</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-7.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731410282.3472536</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731410283.4772089</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410282.3472536.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410283.4772089.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6347.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6334</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731410283.6412048</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731410283.777241</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410283.6412048.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410283.777241.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6328.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6341</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731410283.9462667</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731410286.296959</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410283.9462667.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410286.296959.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6349.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6371</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-21.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731410287.1223123</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731410287.2260387</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410287.1223123.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410287.2260387.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6389.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6377.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731410287.6584957</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731410287.6584957.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731410287.6584957.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6390.5</v>
       </c>
-      <c r="J28" t="n">
-        <v>6390.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>6429</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731410291.4289703</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731410293.5712578</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410291.4289703.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410293.5712578.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>499.55</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>497.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2.050000000000011</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731410294.5539255</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731410294.8573415</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410294.5539255.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410294.8573415.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>497.35</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>496.1</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731410296.6443622</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731410298.961173</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410296.6443622.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410298.961173.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>498.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>498.85</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.6500000000000341</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731410299.3260093</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731410299.8411624</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410299.3260093.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410299.8411624.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>497.7</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>498.75</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.050000000000011</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731410300.8252609</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731410300.8252609.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731410300.8252609.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>500.6</v>
       </c>
-      <c r="J33" t="n">
-        <v>500.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>501.85</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731410303.1392515</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731410304.6106253</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410303.1392515.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410304.6106253.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>224.22</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>224.52</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731410304.752475</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731410304.817382</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410304.752475.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410304.817382.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>224.55</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>224.38</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731410305.7842898</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731410306.360186</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410305.7842898.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410306.360186.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>224.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>224.43</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731410306.5230944</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731410306.6241157</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410306.5230944.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410306.6241157.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>224.76</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>224.25</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731410307.3148172</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731410307.6554723</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410307.3148172.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731410307.6554723.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>224.77</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>224.23</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5400000000000205</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731410308.0845163</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731410308.0845163.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731410308.0845163.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>225</v>
       </c>
-      <c r="J39" t="n">
-        <v>225</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>226.62</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.620000000000005</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731410316.3822587</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731410316.8265712</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410316.3822587.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410316.8265712.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1013.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1010.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.199999999999932</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731410319.3268769</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731410322.1988466</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410319.3268769.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410322.1988466.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1014.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1015.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.8000000000000682</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731410322.9509487</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731410324.4197516</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410322.9509487.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410324.4197516.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1017.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731410324.8207757</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731410324.8207757.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731410324.8207757.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J43" t="n">
-        <v>1021.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-8.799999999999955</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731410327.7843802</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731410329.5444288</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410327.7843802.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410329.5444288.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>11.922</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>11.931</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.009000000000000341</v>
+      <c r="M44" t="n">
+        <v>0.008999999999998565</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731410330.3550284</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731410330.6042259</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410330.3550284.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410330.6042259.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.909</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.918</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.008999999999998565</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731410330.974262</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731410335.2873654</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410330.974262.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410335.2873654.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>11.935</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>11.958</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.02299999999999969</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731410335.5891268</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731410336.1944065</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410335.5891268.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731410336.1944065.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.946</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>11.956</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.009999999999999787</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731410337.6524332</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731410337.6524332.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731410337.6524332.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.973</v>
       </c>
-      <c r="J48" t="n">
-        <v>11.973</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>12.009</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.03599999999999959</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731410339.6586058</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731410341.0017967</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410339.6586058.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410341.0017967.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>123.66</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>123.42</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731410341.8624206</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731410342.7891324</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410341.8624206.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410342.7891324.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>123.24</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>123.64</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731410344.7762563</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731410345.9421217</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410344.7762563.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410345.9421217.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>123.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>123.74</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731410347.0753856</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731410347.0753856.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731410347.0753856.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>124.08</v>
       </c>
-      <c r="J52" t="n">
-        <v>124.08</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>125</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731410351.0176013</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731410351.9658194</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410351.0176013.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410351.9658194.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>158.84</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>159.18</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731410353.3534029</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731410353.82545</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410353.3534029.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410353.82545.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>159.22</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>158.86</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731410354.0491009</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731410354.410645</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410354.0491009.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410354.410645.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>158.68</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>159.12</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731410354.714187</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731410360.0415542</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410354.714187.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410360.0415542.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>159.4</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>161.38</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.97999999999999</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1.24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731410360.4347003</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731410361.6658642</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410360.4347003.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410361.6658642.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>162.12</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>161.7</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731410362.0219014</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731410362.0219014.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731410362.0219014.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>162.32</v>
       </c>
-      <c r="J58" t="n">
-        <v>162.32</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731410364.7582178</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731410366.2877257</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410364.7582178.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410366.2877257.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>49.175</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>49.125</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731410366.9194062</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731410373.7099848</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410366.9194062.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410373.7099848.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>49.315</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>49.99</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.6750000000000043</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731410374.7118473</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731410374.7118473.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731410374.7118473.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>50.19</v>
       </c>
-      <c r="J61" t="n">
-        <v>50.19</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>50.225</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.03500000000000369</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731410376.2829554</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731410376.9411304</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410376.2829554.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410376.9411304.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1371</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1371</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3385,1651 +3947,1966 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731410378.3814638</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731410378.9666705</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410378.3814638.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410378.9666705.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1371</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1373.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731410379.2314267</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731410379.6137888</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410379.2314267.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410379.6137888.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1371.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1373</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731410379.8111832</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731410381.0453942</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410379.8111832.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410381.0453942.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1371.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1372.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731410381.272951</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731410383.8494723</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410381.272951.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410383.8494723.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1374.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1380.6</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-6.399999999999864</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731410384.3817163</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731410384.3817163.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731410384.3817163.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1387.8</v>
       </c>
-      <c r="J67" t="n">
-        <v>1387.8</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>1387.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731410389.3292603</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731410389.4627213</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410389.3292603.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410389.4627213.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>60.76</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>61</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.240000000000002</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731410389.8867528</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731410390.5911334</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410389.8867528.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410390.5911334.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>60.5</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>60.88</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3800000000000026</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731410390.9377632</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731410392.582106</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410390.9377632.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410392.582106.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>61.05</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>60.84</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731410393.7425475</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731410394.4119756</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410393.7425475.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410394.4119756.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>61.12</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>61</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731410394.864785</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731410395.413889</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410394.864785.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410395.413889.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>61.21</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>61.12</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731410398.121929</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731410398.121929.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731410398.121929.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>61.23</v>
       </c>
-      <c r="J73" t="n">
-        <v>61.23</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.2900000000000063</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731410401.1661592</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731410401.9627678</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410401.1661592.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410401.9627678.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>97.12</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>96.81999999999999</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731410404.3885736</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731410404.8322847</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410404.3885736.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410404.8322847.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>97.12</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>96.94</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731410404.8482518</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731410404.9116874</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410404.8482518.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410404.9116874.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>96.94</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731410406.1619756</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731410408.4976869</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410406.1619756.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731410408.4976869.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>97.5</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>97.83</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.3299999999999983</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731410410.6708815</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731410410.6708815.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731410410.6708815.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="J78" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731410412.30792</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731410414.2903972</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410412.30792.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410414.2903972.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>55.3</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>55.37</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731410415.8186033</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731410416.5612829</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410415.8186033.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410416.5612829.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>55.41</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>55.34</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731410418.4251761</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731410420.4342682</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410418.4251761.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410420.4342682.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>55.41</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>55.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731410421.241522</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731410421.241522.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731410421.241522.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>55.74</v>
       </c>
-      <c r="J82" t="n">
-        <v>55.74</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
+      <c r="L82" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.2299999999999969</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731410425.2023292</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731410427.3418496</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410425.2023292.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410427.3418496.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>149.54</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>149.94</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731410427.5009334</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731410427.695993</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410427.5009334.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410427.695993.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>150.22</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>149.58</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731410429.0125287</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731410429.2017448</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410429.0125287.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410429.2017448.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>150.28</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>149.38</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731410429.2166808</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731410429.8250875</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410429.2166808.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410429.8250875.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>149.38</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>149.54</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731410430.7046084</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731410430.7046084.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731410430.7046084.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>150.66</v>
       </c>
-      <c r="J87" t="n">
-        <v>150.66</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
+      <c r="L87" t="n">
+        <v>153.52</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-2.860000000000014</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731410447.6647043</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731410449.07231</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410447.6647043.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410449.07231.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.801</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.837</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.03600000000000136</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731410449.3849764</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731410453.783862</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410449.3849764.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410453.783862.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.88</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.955</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.07499999999999929</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731410454.2997491</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731410455.111084</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410454.2997491.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731410455.111084.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>19.944</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>19.995</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.05100000000000193</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731410455.611303</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731410455.611303.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731410455.611303.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>20.048</v>
       </c>
-      <c r="J91" t="n">
-        <v>20.048</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
+      <c r="L91" t="n">
+        <v>20.035</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.01299999999999812</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731410462.100986</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731410465.7120957</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410462.100986.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731410465.7120957.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>666.55</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>669.7</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-3.150000000000091</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731410466.9013512</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731410466.9013512.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731410466.9013512.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>672.65</v>
       </c>
-      <c r="J93" t="n">
-        <v>672.65</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
+      <c r="L93" t="n">
+        <v>674.45</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-1.800000000000068</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731410468.9884264</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731410469.8213985</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410468.9884264.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410469.8213985.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>148.74</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>150.1</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.359999999999985</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731410473.5415938</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731410475.6662674</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410473.5415938.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410475.6662674.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>149.79</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>149.75</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731410475.9018595</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731410478.8492584</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410475.9018595.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731410478.8492584.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>150.3</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>152.2</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-1.899999999999977</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-1.26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731410479.7069259</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731410479.7069259.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731410479.7069259.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>153.71</v>
       </c>
-      <c r="J97" t="n">
-        <v>153.71</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
+      <c r="L97" t="n">
+        <v>153.96</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -5043,7 +5920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5072,6 +5949,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5080,13 +5967,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.460000000000036</v>
+        <v>3.030000000000086</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3460000000000036</v>
+        <v>0.3030000000000087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -5096,13 +5989,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4199999999999875</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06999999999999791</v>
+        <v>-0.06666666666666761</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
@@ -5112,13 +6011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6000000000001364</v>
+        <v>-0.4000000000000909</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1000000000000227</v>
+        <v>-0.06666666666668182</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5">
@@ -5128,13 +6033,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>-29.5</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>-4.916666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.4599999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
@@ -5144,13 +6055,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.750000000000057</v>
+        <v>0.1300000000000523</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2916666666666761</v>
+        <v>0.02166666666667538</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -5160,13 +6077,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.039999999999999</v>
+        <v>0.7499999999999929</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1733333333333332</v>
+        <v>0.1249999999999988</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -5176,13 +6099,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004999999999999005</v>
+        <v>-0.03100000000000236</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000999999999999801</v>
+        <v>-0.006200000000000472</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
@@ -5192,13 +6121,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8300000000000125</v>
+        <v>0.2900000000000205</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1660000000000025</v>
+        <v>0.05800000000000409</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -5208,13 +6143,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3100000000000165</v>
+        <v>0.4500000000000171</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0620000000000033</v>
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -5224,13 +6165,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.099999999999994</v>
+        <v>-0.7600000000000193</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4199999999999989</v>
+        <v>-0.1520000000000039</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.4899999999999998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
@@ -5240,13 +6187,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340000000000089</v>
+        <v>0.6900000000001114</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2680000000000177</v>
+        <v>0.1380000000000223</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -5256,13 +6209,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4000000000000341</v>
+        <v>-1.650000000000034</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08000000000000682</v>
+        <v>-0.3300000000000068</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +6231,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04999999999999005</v>
+        <v>-0.1800000000000068</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01249999999999751</v>
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -5288,13 +6253,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01200000000000401</v>
+        <v>0.02500000000000213</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003000000000001002</v>
+        <v>0.006250000000000533</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -5304,13 +6275,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.999999999999886</v>
+        <v>-5.800000000000068</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7499999999999716</v>
+        <v>-1.450000000000017</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
@@ -5320,13 +6297,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.125</v>
+        <v>-0.1875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="18">
@@ -5336,13 +6319,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7000000000000028</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1750000000000007</v>
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="19">
@@ -5352,13 +6341,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.6250000000000071</v>
+        <v>-0.6600000000000108</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2083333333333357</v>
+        <v>-0.2200000000000036</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="20">
@@ -5368,13 +6363,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.150000000000091</v>
+        <v>-4.950000000000159</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.575000000000045</v>
+        <v>-2.47500000000008</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="21">
@@ -5390,6 +6391,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
